--- a/upload/Data Nilai Mahasiswa.xlsx
+++ b/upload/Data Nilai Mahasiswa.xlsx
@@ -15,15 +15,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="19">
-  <si>
-    <t>DATA NILAI MAHASISWA KELAS PTI 5B</t>
-  </si>
-  <si>
-    <t>MATA KULIAH PEMROGRAMAN MOBILE</t>
-  </si>
-  <si>
-    <t>SEMESTER 5</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="20">
+  <si>
+    <t>DATA NILAI MAHASISWA KELAS SI 4A</t>
+  </si>
+  <si>
+    <t>MATA KULIAH PEMROGRAMAN WEB</t>
+  </si>
+  <si>
+    <t>SEMESTER 4</t>
   </si>
   <si>
     <t>#</t>
@@ -38,6 +38,9 @@
     <t>Nilai Sikap</t>
   </si>
   <si>
+    <t>Nilai Tugas</t>
+  </si>
+  <si>
     <t>Nilai UTS</t>
   </si>
   <si>
@@ -53,25 +56,25 @@
     <t>Nilai Huruf</t>
   </si>
   <si>
+    <t>I Gede Riyan Ardi Darmawan</t>
+  </si>
+  <si>
+    <t>0,00</t>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
     <t>Vina Velina</t>
   </si>
   <si>
-    <t>0,00</t>
-  </si>
-  <si>
-    <t>E</t>
-  </si>
-  <si>
-    <t>I Gede Riyan Ardi Darmawan</t>
-  </si>
-  <si>
     <t>Sistem Informasi KLIKMPK</t>
   </si>
   <si>
-    <t>Singaraja, 01 May 2021 12:52 WITA</t>
-  </si>
-  <si>
-    <t>Deyan Gede</t>
+    <t>Singaraja, 04 May 2021 13:46 WITA</t>
+  </si>
+  <si>
+    <t>Deyan Ardi</t>
   </si>
 </sst>
 </file>
@@ -436,10 +439,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:I21"/>
+  <dimension ref="A1:J20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A21" sqref="A21"/>
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -448,29 +451,30 @@
     <col min="2" max="2" width="16.424561" bestFit="true" customWidth="true" style="0"/>
     <col min="3" max="3" width="31.706543" bestFit="true" customWidth="true" style="0"/>
     <col min="4" max="4" width="13.996582" bestFit="true" customWidth="true" style="1"/>
-    <col min="5" max="5" width="11.711426" bestFit="true" customWidth="true" style="1"/>
+    <col min="5" max="5" width="13.996582" bestFit="true" customWidth="true" style="1"/>
     <col min="6" max="6" width="11.711426" bestFit="true" customWidth="true" style="1"/>
-    <col min="7" max="7" width="18.709717" bestFit="true" customWidth="true" style="1"/>
-    <col min="8" max="8" width="13.996582" bestFit="true" customWidth="true" style="1"/>
+    <col min="7" max="7" width="11.711426" bestFit="true" customWidth="true" style="1"/>
+    <col min="8" max="8" width="18.709717" bestFit="true" customWidth="true" style="1"/>
     <col min="9" max="9" width="13.996582" bestFit="true" customWidth="true" style="1"/>
+    <col min="10" max="10" width="13.996582" bestFit="true" customWidth="true" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:10">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:10">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:10">
       <c r="A6" s="3" t="s">
         <v>3</v>
       </c>
@@ -498,16 +502,19 @@
       <c r="I6" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="7" spans="1:9">
+      <c r="J6" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="3">
         <v>1</v>
       </c>
       <c r="B7" s="4">
-        <v>1915051080</v>
+        <v>1815091037</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D7" s="3">
         <v>0</v>
@@ -521,22 +528,25 @@
       <c r="G7" s="3">
         <v>0</v>
       </c>
-      <c r="H7" s="3" t="s">
-        <v>13</v>
+      <c r="H7" s="3">
+        <v>0</v>
       </c>
       <c r="I7" s="3" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="8" spans="1:9">
+      <c r="J7" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="3">
         <v>2</v>
       </c>
       <c r="B8" s="4">
-        <v>1815091037</v>
+        <v>1915091037</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D8" s="3">
         <v>0</v>
@@ -550,66 +560,40 @@
       <c r="G8" s="3">
         <v>0</v>
       </c>
-      <c r="H8" s="3" t="s">
-        <v>13</v>
+      <c r="H8" s="3">
+        <v>0</v>
       </c>
       <c r="I8" s="3" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="9" spans="1:9">
-      <c r="A9" s="3">
-        <v>3</v>
-      </c>
-      <c r="B9" s="4">
-        <v>1915091037</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D9" s="3">
-        <v>0</v>
-      </c>
-      <c r="E9" s="3">
-        <v>0</v>
-      </c>
-      <c r="F9" s="3">
-        <v>0</v>
-      </c>
-      <c r="G9" s="3">
-        <v>0</v>
-      </c>
-      <c r="H9" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="I9" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
+      <c r="J8" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
-      <c r="A16" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9">
-      <c r="A21" s="2" t="s">
         <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
+      <c r="A20" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
   <mergeCells>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="A3:I3"/>
-    <mergeCell ref="A15:I15"/>
-    <mergeCell ref="A16:I16"/>
-    <mergeCell ref="A21:I21"/>
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A2:J2"/>
+    <mergeCell ref="A3:J3"/>
+    <mergeCell ref="A14:J14"/>
+    <mergeCell ref="A15:J15"/>
+    <mergeCell ref="A20:J20"/>
   </mergeCells>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
